--- a/code/input/init_pop.xlsx
+++ b/code/input/init_pop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michellezhao/Desktop/HIV_simulation/Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michellezhao/Desktop/github/hiv_simulation/code/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E032EEB8-C288-A840-A494-F4629241ED6A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C649EB13-BC5A-2245-B2DA-5E0B848EF2DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="3560" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1220" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="init_pop" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>age</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>HIV</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>incarceration</t>
   </si>
 </sst>
 </file>
@@ -887,49 +893,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>30</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -938,10 +950,10 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -950,57 +962,69 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>40</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
         <v>1</v>
       </c>
@@ -1008,10 +1032,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>60</v>
       </c>
@@ -1034,13 +1064,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>70</v>
       </c>
@@ -1048,17 +1084,17 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
         <v>1</v>
       </c>
@@ -1066,10 +1102,16 @@
         <v>0</v>
       </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>80</v>
       </c>
@@ -1077,45 +1119,51 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1124,57 +1172,69 @@
         <v>0</v>
       </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>40</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>50</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
         <v>1</v>
       </c>
@@ -1182,24 +1242,30 @@
         <v>0</v>
       </c>
       <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>60</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1208,31 +1274,37 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>70</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
         <v>1</v>
       </c>
@@ -1240,35 +1312,47 @@
         <v>0</v>
       </c>
       <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>80</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>3</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>0</v>
       </c>
     </row>
